--- a/biology/Zoologie/Anguille_plate/Anguille_plate.xlsx
+++ b/biology/Zoologie/Anguille_plate/Anguille_plate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ablennes hians, l’Anguille plate, Orphie coutelas ou Orphie plate, unique représentante du genre Ablennes, est une espèce de poissons marins de la famille des Belonidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'orphie plate ou l'anguille plate se trouve le long des côtes dans des eaux tropicales et tempérées. Elle vit en surface jusqu'à des profondeurs de 3 m.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson grégaire mesure au maximum 140 cm. Il mange du zooplancton et des petits poissons pélagiques.
-Sa reproduction est ovipare et chacune de ses pontes contient environ 600 œufs[1].
+Sa reproduction est ovipare et chacune de ses pontes contient environ 600 œufs.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce a été initialement classée dans le genre Belone sous le protonyme Belone hians Valenciennes, 1846[2].
-En français, elle porte les noms vernaculaires ou normalisés « Anguille plate[2] », « Orphie coutelas[2],[3] » ou « Orphie plate[2],[3] ».
-Ablennes hians a pour synonymes[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce a été initialement classée dans le genre Belone sous le protonyme Belone hians Valenciennes, 1846.
+En français, elle porte les noms vernaculaires ou normalisés « Anguille plate », « Orphie coutelas, » ou « Orphie plate, ».
+Ablennes hians a pour synonymes :
 Ablenes hians (Valenciennes, 1846)
 Ablennes hians pacificus Walford, 1936
 Ablennes pacificus Walford, 1936
@@ -592,7 +610,7 @@
 Mastacembelus fasciatus Bleeker, 1872
 Tylosurus caeruleofasciatus Stead, 1908
 Tylosurus hians (Valenciennes, 1846)
-Le genre Ablennes a pour synonymes[4] :
+Le genre Ablennes a pour synonymes :
 Ablenes
 Athlennes Jordan &amp; Fordice, 1887
 Blennes</t>
